--- a/xlsx/a-level.xlsx
+++ b/xlsx/a-level.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mahjong\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project_laya\mahjong\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3130B121-634C-4EF9-8789-7E99C6FF29BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F203C369-E738-488C-9FED-89E676DDE27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="-120" windowWidth="27810" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="关卡" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="35">
   <si>
     <t>服务端配置名</t>
   </si>
@@ -143,6 +143,18 @@
   <si>
     <t>feng</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>layout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[8,10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布局[行,列]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -654,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -706,7 +718,9 @@
       <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -722,7 +736,9 @@
       <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -738,7 +754,9 @@
       <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -754,7 +772,9 @@
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -770,7 +790,9 @@
       <c r="D8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9">
@@ -785,7 +807,9 @@
       <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10">
@@ -800,7 +824,9 @@
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11">
@@ -815,7 +841,9 @@
       <c r="D11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12">
@@ -830,7 +858,9 @@
       <c r="D12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13">
@@ -845,7 +875,9 @@
       <c r="D13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14">
@@ -860,7 +892,9 @@
       <c r="D14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15">
@@ -875,7 +909,9 @@
       <c r="D15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16">
@@ -890,7 +926,9 @@
       <c r="D16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
@@ -905,7 +943,9 @@
       <c r="D17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
@@ -920,7 +960,9 @@
       <c r="D18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
@@ -935,7 +977,9 @@
       <c r="D19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
@@ -950,7 +994,9 @@
       <c r="D20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21">
@@ -965,7 +1011,9 @@
       <c r="D21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
@@ -980,7 +1028,9 @@
       <c r="D22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
@@ -995,7 +1045,9 @@
       <c r="D23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
@@ -1010,7 +1062,9 @@
       <c r="D24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
@@ -1025,7 +1079,9 @@
       <c r="D25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
@@ -1040,7 +1096,9 @@
       <c r="D26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27">
@@ -1055,7 +1113,9 @@
       <c r="D27" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
@@ -1070,7 +1130,9 @@
       <c r="D28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
@@ -1085,7 +1147,9 @@
       <c r="D29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
@@ -1100,7 +1164,9 @@
       <c r="D30" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
@@ -1115,7 +1181,9 @@
       <c r="D31" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
@@ -1130,7 +1198,9 @@
       <c r="D32" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
@@ -1145,7 +1215,9 @@
       <c r="D33" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
@@ -1160,7 +1232,9 @@
       <c r="D34" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35">
@@ -1175,7 +1249,9 @@
       <c r="D35" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36">
@@ -1190,7 +1266,9 @@
       <c r="D36" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37">
@@ -1205,7 +1283,9 @@
       <c r="D37" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="2"/>
+      <c r="E37" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1219,7 +1299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>

--- a/xlsx/a-level.xlsx
+++ b/xlsx/a-level.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project_laya\mahjong\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F203C369-E738-488C-9FED-89E676DDE27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A29FDC-6509-42E6-87E9-4DC898EB74C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1110" yWindow="-120" windowWidth="27810" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -667,7 +667,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1300,7 +1300,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/xlsx/a-level.xlsx
+++ b/xlsx/a-level.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project_laya\mahjong\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A29FDC-6509-42E6-87E9-4DC898EB74C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B789BDB0-D9F7-4D6F-8BFA-B1B05F9B5F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="-120" windowWidth="27810" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="-120" windowWidth="27810" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="关卡" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="37">
   <si>
     <t>服务端配置名</t>
   </si>
@@ -155,6 +155,13 @@
   <si>
     <t>布局[行,列]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5,7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[8,10]</t>
   </si>
 </sst>
 </file>
@@ -664,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -839,7 +846,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>33</v>
@@ -852,11 +859,11 @@
       <c r="B12">
         <v>180</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>17</v>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>33</v>
@@ -890,7 +897,7 @@
         <v>17</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>33</v>
@@ -907,7 +914,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>33</v>
@@ -924,7 +931,7 @@
         <v>17</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>33</v>
@@ -952,13 +959,13 @@
         <v>11</v>
       </c>
       <c r="B18">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>33</v>
@@ -969,13 +976,13 @@
         <v>12</v>
       </c>
       <c r="B19">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>33</v>
@@ -986,7 +993,7 @@
         <v>13</v>
       </c>
       <c r="B20">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>18</v>
@@ -1003,7 +1010,7 @@
         <v>14</v>
       </c>
       <c r="B21">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>18</v>
@@ -1020,10 +1027,10 @@
         <v>15</v>
       </c>
       <c r="B22">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>18</v>
@@ -1037,7 +1044,7 @@
         <v>16</v>
       </c>
       <c r="B23">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>17</v>
@@ -1054,7 +1061,7 @@
         <v>17</v>
       </c>
       <c r="B24">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>17</v>
@@ -1071,7 +1078,7 @@
         <v>18</v>
       </c>
       <c r="B25">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>17</v>
@@ -1088,13 +1095,13 @@
         <v>19</v>
       </c>
       <c r="B26">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>33</v>
@@ -1105,13 +1112,13 @@
         <v>20</v>
       </c>
       <c r="B27">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>33</v>
@@ -1122,13 +1129,13 @@
         <v>21</v>
       </c>
       <c r="B28">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>33</v>
@@ -1139,13 +1146,13 @@
         <v>22</v>
       </c>
       <c r="B29">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>33</v>
@@ -1156,13 +1163,13 @@
         <v>23</v>
       </c>
       <c r="B30">
-        <v>90</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>16</v>
+        <v>120</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>33</v>
@@ -1173,13 +1180,13 @@
         <v>24</v>
       </c>
       <c r="B31">
-        <v>90</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>16</v>
+        <v>120</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>33</v>
@@ -1190,10 +1197,10 @@
         <v>25</v>
       </c>
       <c r="B32">
-        <v>90</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>16</v>
+        <v>120</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>21</v>
@@ -1207,13 +1214,13 @@
         <v>26</v>
       </c>
       <c r="B33">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>33</v>
@@ -1224,13 +1231,13 @@
         <v>27</v>
       </c>
       <c r="B34">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>33</v>
@@ -1241,7 +1248,7 @@
         <v>28</v>
       </c>
       <c r="B35">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>17</v>
@@ -1258,10 +1265,10 @@
         <v>29</v>
       </c>
       <c r="B36">
-        <v>90</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>17</v>
+        <v>120</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>22</v>
@@ -1275,7 +1282,7 @@
         <v>30</v>
       </c>
       <c r="B37">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>17</v>
@@ -1285,6 +1292,57 @@
       </c>
       <c r="E37" s="6" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>31</v>
+      </c>
+      <c r="B38">
+        <v>120</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>32</v>
+      </c>
+      <c r="B39">
+        <v>120</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>33</v>
+      </c>
+      <c r="B40">
+        <v>120</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1299,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/xlsx/a-level.xlsx
+++ b/xlsx/a-level.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project_laya\mahjong\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project_laya_3.0\mahjong\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B789BDB0-D9F7-4D6F-8BFA-B1B05F9B5F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63F8711-23C0-4163-A651-6805953C1872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="-120" windowWidth="27810" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="-120" windowWidth="27810" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="关卡" sheetId="1" r:id="rId1"/>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -789,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>16</v>
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>16</v>
@@ -840,7 +840,7 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>16</v>
@@ -857,7 +857,7 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>16</v>
@@ -874,7 +874,7 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>17</v>
@@ -891,7 +891,7 @@
         <v>7</v>
       </c>
       <c r="B14">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>17</v>
@@ -908,7 +908,7 @@
         <v>8</v>
       </c>
       <c r="B15">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>17</v>
@@ -925,7 +925,7 @@
         <v>9</v>
       </c>
       <c r="B16">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>17</v>
@@ -942,7 +942,7 @@
         <v>10</v>
       </c>
       <c r="B17">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>17</v>
@@ -959,7 +959,7 @@
         <v>11</v>
       </c>
       <c r="B18">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>18</v>
@@ -976,7 +976,7 @@
         <v>12</v>
       </c>
       <c r="B19">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>18</v>
@@ -993,7 +993,7 @@
         <v>13</v>
       </c>
       <c r="B20">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>18</v>
@@ -1010,7 +1010,7 @@
         <v>14</v>
       </c>
       <c r="B21">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>18</v>
@@ -1027,7 +1027,7 @@
         <v>15</v>
       </c>
       <c r="B22">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>18</v>
@@ -1044,7 +1044,7 @@
         <v>16</v>
       </c>
       <c r="B23">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>17</v>
@@ -1061,7 +1061,7 @@
         <v>17</v>
       </c>
       <c r="B24">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>17</v>
@@ -1078,7 +1078,7 @@
         <v>18</v>
       </c>
       <c r="B25">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>17</v>
@@ -1095,7 +1095,7 @@
         <v>19</v>
       </c>
       <c r="B26">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>17</v>
@@ -1112,7 +1112,7 @@
         <v>20</v>
       </c>
       <c r="B27">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>17</v>
@@ -1129,7 +1129,7 @@
         <v>21</v>
       </c>
       <c r="B28">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>16</v>
@@ -1146,7 +1146,7 @@
         <v>22</v>
       </c>
       <c r="B29">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>16</v>
@@ -1163,7 +1163,7 @@
         <v>23</v>
       </c>
       <c r="B30">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>17</v>
@@ -1180,7 +1180,7 @@
         <v>24</v>
       </c>
       <c r="B31">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>17</v>
@@ -1197,7 +1197,7 @@
         <v>25</v>
       </c>
       <c r="B32">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>18</v>
@@ -1214,7 +1214,7 @@
         <v>26</v>
       </c>
       <c r="B33">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>18</v>
@@ -1231,7 +1231,7 @@
         <v>27</v>
       </c>
       <c r="B34">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>17</v>
@@ -1248,7 +1248,7 @@
         <v>28</v>
       </c>
       <c r="B35">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>17</v>
@@ -1265,7 +1265,7 @@
         <v>29</v>
       </c>
       <c r="B36">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>16</v>
@@ -1282,7 +1282,7 @@
         <v>30</v>
       </c>
       <c r="B37">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>17</v>
@@ -1299,7 +1299,7 @@
         <v>31</v>
       </c>
       <c r="B38">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>18</v>
@@ -1316,7 +1316,7 @@
         <v>32</v>
       </c>
       <c r="B39">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>17</v>
@@ -1333,7 +1333,7 @@
         <v>33</v>
       </c>
       <c r="B40">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>16</v>
@@ -1357,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/xlsx/a-level.xlsx
+++ b/xlsx/a-level.xlsx
@@ -8,21 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project_laya_3.0\mahjong\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63F8711-23C0-4163-A651-6805953C1872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016AD5A3-E05B-4EBE-B8C8-868B88D6DA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="-120" windowWidth="27810" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="-120" windowWidth="27810" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="关卡" sheetId="1" r:id="rId1"/>
     <sheet name="牌资源" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="牌类型" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="49">
   <si>
     <t>服务端配置名</t>
   </si>
@@ -162,6 +173,54 @@
   </si>
   <si>
     <t>[8,10]</t>
+  </si>
+  <si>
+    <t>CardTypeConfig.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>own</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有的牌[[类型，子类数组，数量]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,[1,2,3,4,5,6,7,8,9],4],[2,[1,2,3,4,5,6,7,8,9],4],[4,[5,6],4]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,[1,2,3,4,5,6,7,8,9],4],[2,[1,2,3,4,5,6,7,8,9],4],[4,[5,6],2],[4,[3,4],2]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,[1,2,3,4,5,6,7,8,9],4],[2,[1,2,3,4,5,6,7,8,9],4],[4,[6,7],2],[4,[1,2],2]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,[2,2,3,4,5,6,7,8,9],4],[3,[1,2,3,4,5,6,7,8,9],4],[4,[6,7],2],[4,[1,2],2]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,[1,2,3,4,5,6,7,8,9],4],[3,[1,2,3,4,5,6,7,8,9],4],[4,[6,7],2],[4,[1,2],2]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -198,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,6 +273,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,7 +324,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -268,6 +345,57 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -290,16 +418,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>256820</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123382</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>218720</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>94807</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -322,7 +450,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9077325" y="1724025"/>
+          <a:off x="15592425" y="838200"/>
           <a:ext cx="2838095" cy="3542857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -372,6 +500,55 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7600950" y="1809750"/>
+          <a:ext cx="2647619" cy="3552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>590219</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F35BE672-A113-4303-9DC7-9053FDB6239D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601200" y="2114550"/>
           <a:ext cx="2647619" cy="3552381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -673,17 +850,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="86" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
@@ -728,6 +906,9 @@
       <c r="E4" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -746,6 +927,9 @@
       <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -764,6 +948,9 @@
       <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -782,485 +969,584 @@
       <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8">
+    <row r="8" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="7">
         <v>360</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9">
+      <c r="E8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="7">
+        <f>2*9*4+2*4</f>
+        <v>80</v>
+      </c>
+      <c r="H8" s="7">
+        <f>9*4+9*4+2*4</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
         <v>2</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="7">
         <v>360</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10">
+      <c r="E9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="7">
+        <f>4*9+4*9+2*2+2*2</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
         <v>3</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="7">
         <v>360</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11">
+      <c r="E10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
         <v>4</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="7">
         <v>360</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12">
+      <c r="E11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
         <v>5</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="7">
         <v>360</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13">
+      <c r="E12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11">
         <v>6</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="11">
         <v>360</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14">
+      <c r="E13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11">
         <v>7</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="11">
         <v>360</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15">
+      <c r="E14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11">
         <v>8</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="11">
         <v>360</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16">
+      <c r="E15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="11">
         <v>9</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="11">
         <v>360</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17">
+      <c r="E16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11">
         <v>10</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="11">
         <v>360</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18">
+      <c r="E17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="14">
         <v>11</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="14">
         <v>300</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19">
+      <c r="E18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="14">
         <v>12</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="14">
         <v>300</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20">
+      <c r="E19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="14">
         <v>13</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="14">
         <v>300</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21">
+      <c r="E20" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="14">
         <v>14</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="14">
         <v>300</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22">
+      <c r="E21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="14">
         <v>15</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="14">
         <v>300</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23">
+      <c r="E22" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="17">
         <v>16</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="17">
         <v>300</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24">
+      <c r="E23" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="17">
         <v>17</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="17">
         <v>300</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25">
+      <c r="E24" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="17">
         <v>18</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="17">
         <v>300</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26">
+      <c r="E25" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="17">
         <v>19</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="17">
         <v>300</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27">
+      <c r="E26" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="17">
         <v>20</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="17">
         <v>300</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28">
+      <c r="E27" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="19">
         <v>21</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="19">
         <v>240</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29">
+      <c r="E28" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="19">
         <v>22</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="19">
         <v>240</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30">
+      <c r="E29" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="19">
         <v>23</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="19">
         <v>240</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31">
+      <c r="E30" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="19">
         <v>24</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="19">
         <v>240</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32">
+      <c r="E31" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="19">
         <v>25</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="19">
         <v>240</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33">
+      <c r="E32" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="19">
         <v>26</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="19">
         <v>240</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34">
+      <c r="E33" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="19">
         <v>27</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="19">
         <v>240</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35">
+      <c r="E34" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="19">
         <v>28</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="19">
         <v>240</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E35" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>29</v>
       </c>
@@ -1276,8 +1562,11 @@
       <c r="E36" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>30</v>
       </c>
@@ -1293,8 +1582,11 @@
       <c r="E37" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>31</v>
       </c>
@@ -1310,8 +1602,11 @@
       <c r="E38" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>32</v>
       </c>
@@ -1327,8 +1622,11 @@
       <c r="E39" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>33</v>
       </c>
@@ -1343,6 +1641,9 @@
       </c>
       <c r="E40" s="6" t="s">
         <v>36</v>
+      </c>
+      <c r="F40" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1358,7 +1659,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E11"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1482,14 +1783,366 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>